--- a/data/var_2021.xlsx
+++ b/data/var_2021.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merlyklaas/Documents/Work/Canopy/canopy-dac-24/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04267E70-F788-5046-B93E-571210E1CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D981C66A-368B-2548-9A52-3BF514F9A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15300" xr2:uid="{9A5947DC-1F57-7B4E-A154-8D841AD4D9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="643">
   <si>
     <t>school_id</t>
   </si>
@@ -1938,6 +1938,33 @@
   </si>
   <si>
     <t>school_descriptor</t>
+  </si>
+  <si>
+    <t>leader_tenure</t>
+  </si>
+  <si>
+    <t>Less than a year</t>
+  </si>
+  <si>
+    <t>10 years or more</t>
+  </si>
+  <si>
+    <t>1-3 years</t>
+  </si>
+  <si>
+    <t>4-6 years</t>
+  </si>
+  <si>
+    <t>7-9 years</t>
+  </si>
+  <si>
+    <t>title_i_schoolwide</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>†</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +2013,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2029,6 +2056,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2042,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45" wrapText="1"/>
@@ -2070,14 +2103,15 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2392,19 +2426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C18F382-9D1E-F744-A44D-CCE97F70DA18}">
-  <dimension ref="A1:AL233"/>
+  <dimension ref="A1:AN233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X230" sqref="X230"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="38" max="38" width="12.6640625"/>
+    <col min="38" max="40" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2516,11 +2550,17 @@
       <c r="AK1" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AL1" s="14" t="s">
         <v>633</v>
       </c>
+      <c r="AM1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>3</v>
       </c>
@@ -2629,8 +2669,14 @@
       <c r="AL2" s="9">
         <v>2</v>
       </c>
+      <c r="AM2" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>8</v>
       </c>
@@ -2705,8 +2751,12 @@
       <c r="AL3" s="9">
         <v>3</v>
       </c>
+      <c r="AM3" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -2767,8 +2817,12 @@
       <c r="AL4" s="9">
         <v>3</v>
       </c>
+      <c r="AM4" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN4" s="9"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>15</v>
       </c>
@@ -2881,8 +2935,14 @@
       <c r="AL5" s="9">
         <v>2</v>
       </c>
+      <c r="AM5" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>23</v>
       </c>
@@ -2995,8 +3055,14 @@
       <c r="AL6" s="9">
         <v>1</v>
       </c>
+      <c r="AM6" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>24</v>
       </c>
@@ -3107,8 +3173,14 @@
       <c r="AL7" s="9">
         <v>2</v>
       </c>
+      <c r="AM7" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN7" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>28</v>
       </c>
@@ -3223,8 +3295,14 @@
       <c r="AL8" s="9">
         <v>1</v>
       </c>
+      <c r="AM8" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>32</v>
       </c>
@@ -3339,8 +3417,14 @@
       <c r="AL9" s="9">
         <v>2</v>
       </c>
+      <c r="AM9" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN9" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>35</v>
       </c>
@@ -3449,8 +3533,14 @@
       <c r="AL10" s="9">
         <v>2</v>
       </c>
+      <c r="AM10" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>38</v>
       </c>
@@ -3563,8 +3653,14 @@
       <c r="AL11" s="9">
         <v>2</v>
       </c>
+      <c r="AM11" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>39</v>
       </c>
@@ -3623,8 +3719,12 @@
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
+      <c r="AM12" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN12" s="9"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>44</v>
       </c>
@@ -3735,8 +3835,14 @@
       <c r="AL13" s="9">
         <v>2</v>
       </c>
+      <c r="AM13" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>47</v>
       </c>
@@ -3851,8 +3957,14 @@
       <c r="AL14" s="9">
         <v>1</v>
       </c>
+      <c r="AM14" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN14" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>49</v>
       </c>
@@ -3905,8 +4017,12 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
+      <c r="AM15" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN15" s="9"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>52</v>
       </c>
@@ -3938,8 +4054,11 @@
       <c r="AH16" t="s">
         <v>629</v>
       </c>
+      <c r="AM16" s="9" t="s">
+        <v>638</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>63</v>
       </c>
@@ -3998,8 +4117,12 @@
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
+      <c r="AM17" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN17" s="9"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>64</v>
       </c>
@@ -4106,8 +4229,14 @@
       <c r="AL18" s="9">
         <v>2</v>
       </c>
+      <c r="AM18" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN18" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>67</v>
       </c>
@@ -4162,8 +4291,12 @@
       <c r="AJ19" s="9"/>
       <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
+      <c r="AM19" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN19" s="9"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>69</v>
       </c>
@@ -4274,8 +4407,14 @@
       <c r="AL20" s="9">
         <v>1</v>
       </c>
+      <c r="AM20" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>70</v>
       </c>
@@ -4390,8 +4529,14 @@
       <c r="AL21" s="9">
         <v>2</v>
       </c>
+      <c r="AM21" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN21" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>71</v>
       </c>
@@ -4506,8 +4651,14 @@
       <c r="AL22" s="9">
         <v>1</v>
       </c>
+      <c r="AM22" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN22" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>72</v>
       </c>
@@ -4618,8 +4769,14 @@
       <c r="AL23" s="9">
         <v>1</v>
       </c>
+      <c r="AM23" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN23" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>75</v>
       </c>
@@ -4732,8 +4889,14 @@
       <c r="AL24" s="9">
         <v>2</v>
       </c>
+      <c r="AM24" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN24" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>76</v>
       </c>
@@ -4846,8 +5009,14 @@
       <c r="AL25" s="9">
         <v>1</v>
       </c>
+      <c r="AM25" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN25" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>79</v>
       </c>
@@ -4962,8 +5131,14 @@
       <c r="AL26" s="9">
         <v>1</v>
       </c>
+      <c r="AM26" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN26" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>80</v>
       </c>
@@ -5066,8 +5241,14 @@
       <c r="AL27" s="9">
         <v>1</v>
       </c>
+      <c r="AM27" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN27" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>83</v>
       </c>
@@ -5178,8 +5359,14 @@
       <c r="AL28" s="9">
         <v>2</v>
       </c>
+      <c r="AM28" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN28" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>85</v>
       </c>
@@ -5292,8 +5479,14 @@
       <c r="AL29" s="9">
         <v>2</v>
       </c>
+      <c r="AM29" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>94</v>
       </c>
@@ -5406,8 +5599,14 @@
       <c r="AL30" s="9">
         <v>1</v>
       </c>
+      <c r="AM30" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN30" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>98</v>
       </c>
@@ -5514,8 +5713,14 @@
       <c r="AL31" s="9">
         <v>2</v>
       </c>
+      <c r="AM31" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>100</v>
       </c>
@@ -5626,8 +5831,14 @@
       <c r="AL32" s="9">
         <v>2</v>
       </c>
+      <c r="AM32" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN32" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>102</v>
       </c>
@@ -5740,8 +5951,14 @@
       <c r="AL33" s="9">
         <v>1</v>
       </c>
+      <c r="AM33" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN33" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>105</v>
       </c>
@@ -5856,8 +6073,14 @@
       <c r="AL34" s="9">
         <v>1</v>
       </c>
+      <c r="AM34" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN34" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>109</v>
       </c>
@@ -5970,8 +6193,14 @@
       <c r="AL35" s="9">
         <v>2</v>
       </c>
+      <c r="AM35" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>112</v>
       </c>
@@ -6024,8 +6253,12 @@
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
+      <c r="AM36" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN36" s="9"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>117</v>
       </c>
@@ -6136,8 +6369,14 @@
       <c r="AL37" s="9">
         <v>2</v>
       </c>
+      <c r="AM37" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN37" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>122</v>
       </c>
@@ -6244,8 +6483,14 @@
       <c r="AL38" s="9">
         <v>2</v>
       </c>
+      <c r="AM38" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN38" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>130</v>
       </c>
@@ -6350,8 +6595,14 @@
       <c r="AL39" s="9">
         <v>2</v>
       </c>
+      <c r="AM39" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN39" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>134</v>
       </c>
@@ -6466,8 +6717,14 @@
       <c r="AL40" s="9">
         <v>2</v>
       </c>
+      <c r="AM40" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN40" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>139</v>
       </c>
@@ -6578,8 +6835,14 @@
       <c r="AL41" s="9">
         <v>2</v>
       </c>
+      <c r="AM41" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN41" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>142</v>
       </c>
@@ -6694,8 +6957,14 @@
       <c r="AL42" s="9">
         <v>1</v>
       </c>
+      <c r="AM42" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN42" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>144</v>
       </c>
@@ -6810,8 +7079,14 @@
       <c r="AL43" s="9">
         <v>1</v>
       </c>
+      <c r="AM43" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN43" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>146</v>
       </c>
@@ -6926,8 +7201,14 @@
       <c r="AL44" s="9">
         <v>1</v>
       </c>
+      <c r="AM44" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN44" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>150</v>
       </c>
@@ -6980,8 +7261,12 @@
       <c r="AJ45" s="9"/>
       <c r="AK45" s="9"/>
       <c r="AL45" s="9"/>
+      <c r="AM45" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN45" s="9"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>165</v>
       </c>
@@ -7090,8 +7375,14 @@
       <c r="AL46" s="9">
         <v>2</v>
       </c>
+      <c r="AM46" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN46" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>172</v>
       </c>
@@ -7196,8 +7487,14 @@
       <c r="AL47" s="9">
         <v>2</v>
       </c>
+      <c r="AM47" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN47" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>174</v>
       </c>
@@ -7312,8 +7609,14 @@
       <c r="AL48" s="9">
         <v>1</v>
       </c>
+      <c r="AM48" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN48" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>180</v>
       </c>
@@ -7428,8 +7731,14 @@
       <c r="AL49" s="9">
         <v>2</v>
       </c>
+      <c r="AM49" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN49" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>183</v>
       </c>
@@ -7544,8 +7853,14 @@
       <c r="AL50" s="9">
         <v>1</v>
       </c>
+      <c r="AM50" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN50" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>185</v>
       </c>
@@ -7598,8 +7913,12 @@
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
       <c r="AL51" s="9"/>
+      <c r="AM51" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN51" s="9"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>189</v>
       </c>
@@ -7658,8 +7977,12 @@
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9"/>
       <c r="AL52" s="9"/>
+      <c r="AM52" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN52" s="9"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>190</v>
       </c>
@@ -7712,8 +8035,12 @@
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
       <c r="AL53" s="9"/>
+      <c r="AM53" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN53" s="9"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>192</v>
       </c>
@@ -7828,8 +8155,14 @@
       <c r="AL54" s="9">
         <v>1</v>
       </c>
+      <c r="AM54" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN54" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>196</v>
       </c>
@@ -7942,8 +8275,14 @@
       <c r="AL55" s="9">
         <v>1</v>
       </c>
+      <c r="AM55" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN55" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>197</v>
       </c>
@@ -8052,8 +8391,14 @@
       <c r="AL56" s="9">
         <v>2</v>
       </c>
+      <c r="AM56" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN56" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>199</v>
       </c>
@@ -8112,8 +8457,12 @@
       <c r="AJ57" s="9"/>
       <c r="AK57" s="9"/>
       <c r="AL57" s="9"/>
+      <c r="AM57" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN57" s="9"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>208</v>
       </c>
@@ -8228,8 +8577,14 @@
       <c r="AL58" s="9">
         <v>2</v>
       </c>
+      <c r="AM58" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN58" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>209</v>
       </c>
@@ -8338,8 +8693,14 @@
       <c r="AL59" s="9">
         <v>2</v>
       </c>
+      <c r="AM59" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN59" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>211</v>
       </c>
@@ -8454,8 +8815,14 @@
       <c r="AL60" s="9">
         <v>1</v>
       </c>
+      <c r="AM60" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN60" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>213</v>
       </c>
@@ -8560,8 +8927,14 @@
       <c r="AL61" s="9">
         <v>2</v>
       </c>
+      <c r="AM61" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN61" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>216</v>
       </c>
@@ -8672,8 +9045,14 @@
       <c r="AL62" s="9">
         <v>2</v>
       </c>
+      <c r="AM62" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN62" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>218</v>
       </c>
@@ -8786,8 +9165,14 @@
       <c r="AL63" s="9">
         <v>1</v>
       </c>
+      <c r="AM63" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN63" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>220</v>
       </c>
@@ -8892,8 +9277,14 @@
       <c r="AL64" s="9">
         <v>2</v>
       </c>
+      <c r="AM64" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN64" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>221</v>
       </c>
@@ -9008,8 +9399,14 @@
       <c r="AL65" s="9">
         <v>2</v>
       </c>
+      <c r="AM65" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN65" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>229</v>
       </c>
@@ -9068,8 +9465,12 @@
       <c r="AJ66" s="9"/>
       <c r="AK66" s="9"/>
       <c r="AL66" s="9"/>
+      <c r="AM66" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN66" s="9"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>230</v>
       </c>
@@ -9122,8 +9523,12 @@
       <c r="AJ67" s="9"/>
       <c r="AK67" s="9"/>
       <c r="AL67" s="9"/>
+      <c r="AM67" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN67" s="9"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>231</v>
       </c>
@@ -9234,8 +9639,14 @@
       <c r="AL68" s="9">
         <v>1</v>
       </c>
+      <c r="AM68" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN68" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>233</v>
       </c>
@@ -9344,8 +9755,14 @@
       <c r="AL69" s="9">
         <v>1</v>
       </c>
+      <c r="AM69" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN69" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>234</v>
       </c>
@@ -9456,8 +9873,14 @@
       <c r="AL70" s="9">
         <v>2</v>
       </c>
+      <c r="AM70" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN70" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>235</v>
       </c>
@@ -9572,8 +9995,14 @@
       <c r="AL71" s="9">
         <v>1</v>
       </c>
+      <c r="AM71" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN71" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>236</v>
       </c>
@@ -9682,8 +10111,14 @@
       <c r="AL72" s="9">
         <v>2</v>
       </c>
+      <c r="AM72" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN72" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>237</v>
       </c>
@@ -9792,8 +10227,14 @@
       <c r="AL73" s="9">
         <v>2</v>
       </c>
+      <c r="AM73" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN73" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>238</v>
       </c>
@@ -9908,8 +10349,14 @@
       <c r="AL74" s="9">
         <v>1</v>
       </c>
+      <c r="AM74" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN74" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>241</v>
       </c>
@@ -10024,8 +10471,14 @@
       <c r="AL75" s="9">
         <v>1</v>
       </c>
+      <c r="AM75" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN75" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>243</v>
       </c>
@@ -10136,8 +10589,14 @@
       <c r="AL76" s="9">
         <v>1</v>
       </c>
+      <c r="AM76" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN76" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>247</v>
       </c>
@@ -10190,8 +10649,12 @@
       <c r="AJ77" s="9"/>
       <c r="AK77" s="9"/>
       <c r="AL77" s="9"/>
+      <c r="AM77" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN77" s="9"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>249</v>
       </c>
@@ -10304,8 +10767,14 @@
       <c r="AL78" s="9">
         <v>1</v>
       </c>
+      <c r="AM78" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN78" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>252</v>
       </c>
@@ -10416,8 +10885,14 @@
       <c r="AL79" s="9">
         <v>2</v>
       </c>
+      <c r="AM79" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN79" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>253</v>
       </c>
@@ -10470,8 +10945,12 @@
       <c r="AJ80" s="9"/>
       <c r="AK80" s="9"/>
       <c r="AL80" s="9"/>
+      <c r="AM80" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN80" s="9"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>259</v>
       </c>
@@ -10578,8 +11057,14 @@
       <c r="AL81" s="9">
         <v>1</v>
       </c>
+      <c r="AM81" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN81" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>260</v>
       </c>
@@ -10686,8 +11171,14 @@
       <c r="AL82" s="9">
         <v>1</v>
       </c>
+      <c r="AM82" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN82" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>266</v>
       </c>
@@ -10740,8 +11231,12 @@
       <c r="AJ83" s="9"/>
       <c r="AK83" s="9"/>
       <c r="AL83" s="9"/>
+      <c r="AM83" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN83" s="9"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>268</v>
       </c>
@@ -10856,8 +11351,14 @@
       <c r="AL84" s="9">
         <v>2</v>
       </c>
+      <c r="AM84" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN84" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>269</v>
       </c>
@@ -10962,8 +11463,14 @@
       <c r="AL85" s="9">
         <v>1</v>
       </c>
+      <c r="AM85" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN85" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>270</v>
       </c>
@@ -11074,8 +11581,14 @@
       <c r="AL86" s="9">
         <v>2</v>
       </c>
+      <c r="AM86" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN86" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>272</v>
       </c>
@@ -11186,8 +11699,14 @@
       <c r="AL87" s="9">
         <v>2</v>
       </c>
+      <c r="AM87" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN87" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>275</v>
       </c>
@@ -11296,8 +11815,14 @@
       <c r="AL88" s="9">
         <v>1</v>
       </c>
+      <c r="AM88" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN88" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>276</v>
       </c>
@@ -11350,8 +11875,12 @@
       <c r="AJ89" s="9"/>
       <c r="AK89" s="9"/>
       <c r="AL89" s="9"/>
+      <c r="AM89" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN89" s="9"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>280</v>
       </c>
@@ -11466,8 +11995,14 @@
       <c r="AL90" s="9">
         <v>1</v>
       </c>
+      <c r="AM90" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN90" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>283</v>
       </c>
@@ -11580,8 +12115,14 @@
       <c r="AL91" s="9">
         <v>2</v>
       </c>
+      <c r="AM91" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN91" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>284</v>
       </c>
@@ -11634,8 +12175,12 @@
       <c r="AJ92" s="9"/>
       <c r="AK92" s="9"/>
       <c r="AL92" s="9"/>
+      <c r="AM92" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN92" s="9"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>287</v>
       </c>
@@ -11690,8 +12235,12 @@
       <c r="AJ93" s="9"/>
       <c r="AK93" s="9"/>
       <c r="AL93" s="9"/>
+      <c r="AM93" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN93" s="9"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>289</v>
       </c>
@@ -11806,8 +12355,14 @@
       <c r="AL94" s="9">
         <v>1</v>
       </c>
+      <c r="AM94" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN94" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>291</v>
       </c>
@@ -11914,8 +12469,14 @@
       <c r="AL95" s="9">
         <v>1</v>
       </c>
+      <c r="AM95" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN95" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>292</v>
       </c>
@@ -12026,8 +12587,14 @@
       <c r="AL96" s="9">
         <v>2</v>
       </c>
+      <c r="AM96" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN96" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>293</v>
       </c>
@@ -12080,8 +12647,12 @@
       <c r="AJ97" s="9"/>
       <c r="AK97" s="9"/>
       <c r="AL97" s="9"/>
+      <c r="AM97" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN97" s="9"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>296</v>
       </c>
@@ -12192,8 +12763,14 @@
       <c r="AL98" s="9">
         <v>1</v>
       </c>
+      <c r="AM98" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN98" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>297</v>
       </c>
@@ -12308,8 +12885,14 @@
       <c r="AL99" s="9">
         <v>1</v>
       </c>
+      <c r="AM99" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN99" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>299</v>
       </c>
@@ -12404,8 +12987,14 @@
       <c r="AL100" s="9">
         <v>1</v>
       </c>
+      <c r="AM100" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN100" s="9" t="s">
+        <v>642</v>
+      </c>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>300</v>
       </c>
@@ -12514,8 +13103,14 @@
       <c r="AL101" s="9">
         <v>1</v>
       </c>
+      <c r="AM101" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN101" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>301</v>
       </c>
@@ -12628,8 +13223,14 @@
       <c r="AL102" s="9">
         <v>1</v>
       </c>
+      <c r="AM102" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN102" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>302</v>
       </c>
@@ -12744,8 +13345,14 @@
       <c r="AL103" s="9">
         <v>1</v>
       </c>
+      <c r="AM103" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN103" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>303</v>
       </c>
@@ -12800,8 +13407,12 @@
       <c r="AJ104" s="9"/>
       <c r="AK104" s="9"/>
       <c r="AL104" s="9"/>
+      <c r="AM104" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN104" s="9"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>307</v>
       </c>
@@ -12914,8 +13525,14 @@
       <c r="AL105" s="9">
         <v>1</v>
       </c>
+      <c r="AM105" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN105" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>308</v>
       </c>
@@ -13022,8 +13639,14 @@
       <c r="AL106" s="9">
         <v>2</v>
       </c>
+      <c r="AM106" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN106" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>311</v>
       </c>
@@ -13096,8 +13719,12 @@
       <c r="AL107" s="9">
         <v>3</v>
       </c>
+      <c r="AM107" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN107" s="9"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>312</v>
       </c>
@@ -13206,8 +13833,14 @@
       <c r="AL108" s="9">
         <v>1</v>
       </c>
+      <c r="AM108" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN108" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>313</v>
       </c>
@@ -13318,8 +13951,14 @@
       <c r="AL109" s="9">
         <v>1</v>
       </c>
+      <c r="AM109" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN109" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>316</v>
       </c>
@@ -13424,8 +14063,14 @@
       <c r="AL110" s="9">
         <v>2</v>
       </c>
+      <c r="AM110" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN110" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>317</v>
       </c>
@@ -13538,8 +14183,14 @@
       <c r="AL111" s="9">
         <v>1</v>
       </c>
+      <c r="AM111" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN111" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>319</v>
       </c>
@@ -13650,8 +14301,14 @@
       <c r="AL112" s="9">
         <v>1</v>
       </c>
+      <c r="AM112" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN112" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>323</v>
       </c>
@@ -13764,8 +14421,14 @@
       <c r="AL113" s="9">
         <v>2</v>
       </c>
+      <c r="AM113" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN113" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>324</v>
       </c>
@@ -13874,8 +14537,14 @@
       <c r="AL114" s="9">
         <v>2</v>
       </c>
+      <c r="AM114" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN114" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>325</v>
       </c>
@@ -13928,8 +14597,12 @@
       <c r="AJ115" s="9"/>
       <c r="AK115" s="9"/>
       <c r="AL115" s="9"/>
+      <c r="AM115" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN115" s="9"/>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>327</v>
       </c>
@@ -14044,8 +14717,14 @@
       <c r="AL116" s="9">
         <v>1</v>
       </c>
+      <c r="AM116" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN116" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>329</v>
       </c>
@@ -14100,8 +14779,12 @@
       <c r="AJ117" s="9"/>
       <c r="AK117" s="9"/>
       <c r="AL117" s="9"/>
+      <c r="AM117" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN117" s="9"/>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>330</v>
       </c>
@@ -14212,8 +14895,14 @@
       <c r="AL118" s="9">
         <v>1</v>
       </c>
+      <c r="AM118" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN118" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>331</v>
       </c>
@@ -14328,8 +15017,14 @@
       <c r="AL119" s="9">
         <v>1</v>
       </c>
+      <c r="AM119" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN119" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>332</v>
       </c>
@@ -14436,8 +15131,14 @@
       <c r="AL120" s="9">
         <v>2</v>
       </c>
+      <c r="AM120" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN120" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>333</v>
       </c>
@@ -14548,8 +15249,14 @@
       <c r="AL121" s="9">
         <v>2</v>
       </c>
+      <c r="AM121" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN121" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>334</v>
       </c>
@@ -14658,8 +15365,14 @@
       <c r="AL122" s="9">
         <v>2</v>
       </c>
+      <c r="AM122" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN122" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>339</v>
       </c>
@@ -14772,8 +15485,14 @@
       <c r="AL123" s="9">
         <v>1</v>
       </c>
+      <c r="AM123" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN123" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>345</v>
       </c>
@@ -14848,8 +15567,12 @@
       <c r="AL124" s="9">
         <v>3</v>
       </c>
+      <c r="AM124" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN124" s="9"/>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>346</v>
       </c>
@@ -14958,8 +15681,14 @@
       <c r="AL125" s="9">
         <v>1</v>
       </c>
+      <c r="AM125" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN125" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>348</v>
       </c>
@@ -15012,8 +15741,12 @@
       <c r="AJ126" s="9"/>
       <c r="AK126" s="9"/>
       <c r="AL126" s="9"/>
+      <c r="AM126" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN126" s="9"/>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>349</v>
       </c>
@@ -15124,8 +15857,14 @@
       <c r="AL127" s="9">
         <v>2</v>
       </c>
+      <c r="AM127" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN127" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>351</v>
       </c>
@@ -15156,8 +15895,11 @@
       <c r="AH128" t="s">
         <v>629</v>
       </c>
+      <c r="AM128" s="9" t="s">
+        <v>637</v>
+      </c>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>353</v>
       </c>
@@ -15268,8 +16010,14 @@
       <c r="AL129" s="9">
         <v>2</v>
       </c>
+      <c r="AM129" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN129" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>355</v>
       </c>
@@ -15384,8 +16132,14 @@
       <c r="AL130" s="9">
         <v>1</v>
       </c>
+      <c r="AM130" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN130" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>356</v>
       </c>
@@ -15496,8 +16250,14 @@
       <c r="AL131" s="9">
         <v>1</v>
       </c>
+      <c r="AM131" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN131" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>357</v>
       </c>
@@ -15612,8 +16372,14 @@
       <c r="AL132" s="9">
         <v>1</v>
       </c>
+      <c r="AM132" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN132" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>358</v>
       </c>
@@ -15688,8 +16454,12 @@
       <c r="AL133" s="9">
         <v>3</v>
       </c>
+      <c r="AM133" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN133" s="9"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>359</v>
       </c>
@@ -15800,8 +16570,14 @@
       <c r="AL134" s="9">
         <v>2</v>
       </c>
+      <c r="AM134" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN134" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>360</v>
       </c>
@@ -15854,8 +16630,12 @@
       <c r="AJ135" s="9"/>
       <c r="AK135" s="9"/>
       <c r="AL135" s="9"/>
+      <c r="AM135" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN135" s="9"/>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>362</v>
       </c>
@@ -15966,8 +16746,14 @@
       <c r="AL136" s="9">
         <v>1</v>
       </c>
+      <c r="AM136" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN136" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>363</v>
       </c>
@@ -16080,8 +16866,14 @@
       <c r="AL137" s="9">
         <v>1</v>
       </c>
+      <c r="AM137" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN137" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>364</v>
       </c>
@@ -16188,8 +16980,14 @@
       <c r="AL138" s="9">
         <v>2</v>
       </c>
+      <c r="AM138" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN138" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>365</v>
       </c>
@@ -16264,8 +17062,12 @@
       <c r="AL139" s="9">
         <v>3</v>
       </c>
+      <c r="AM139" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN139" s="9"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>366</v>
       </c>
@@ -16376,8 +17178,14 @@
       <c r="AL140" s="9">
         <v>1</v>
       </c>
+      <c r="AM140" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN140" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>368</v>
       </c>
@@ -16430,8 +17238,12 @@
       <c r="AJ141" s="9"/>
       <c r="AK141" s="9"/>
       <c r="AL141" s="9"/>
+      <c r="AM141" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN141" s="9"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>369</v>
       </c>
@@ -16546,8 +17358,14 @@
       <c r="AL142" s="9">
         <v>2</v>
       </c>
+      <c r="AM142" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN142" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>371</v>
       </c>
@@ -16662,8 +17480,14 @@
       <c r="AL143" s="9">
         <v>1</v>
       </c>
+      <c r="AM143" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN143" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>373</v>
       </c>
@@ -16778,8 +17602,14 @@
       <c r="AL144" s="9">
         <v>1</v>
       </c>
+      <c r="AM144" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN144" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>379</v>
       </c>
@@ -16890,122 +17720,134 @@
       <c r="AL145" s="9">
         <v>2</v>
       </c>
+      <c r="AM145" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN145" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="146" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13">
+    <row r="146" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="15">
         <v>405</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="D146" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="E146" s="14">
-        <v>0</v>
-      </c>
-      <c r="F146" s="15" t="s">
+      <c r="E146" s="16">
+        <v>0</v>
+      </c>
+      <c r="F146" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="G146" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H146" s="16">
         <v>552</v>
       </c>
-      <c r="I146" s="16">
+      <c r="I146" s="18">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="J146" s="16">
-        <v>0</v>
-      </c>
-      <c r="K146" s="16">
+      <c r="J146" s="18">
+        <v>0</v>
+      </c>
+      <c r="K146" s="18">
         <v>1.8E-3</v>
       </c>
-      <c r="L146" s="16">
+      <c r="L146" s="18">
         <v>1.8E-3</v>
       </c>
-      <c r="M146" s="16">
-        <v>0</v>
-      </c>
-      <c r="N146" s="16">
+      <c r="M146" s="18">
+        <v>0</v>
+      </c>
+      <c r="N146" s="18">
         <v>0.96919999999999995</v>
       </c>
-      <c r="O146" s="16">
+      <c r="O146" s="18">
         <v>1.09E-2</v>
       </c>
-      <c r="P146" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q146" s="14">
-        <v>0</v>
-      </c>
-      <c r="R146" s="14">
-        <v>0</v>
-      </c>
-      <c r="S146" s="14">
-        <v>0</v>
-      </c>
-      <c r="T146" s="14">
-        <v>0</v>
-      </c>
-      <c r="U146" s="14">
-        <v>0</v>
-      </c>
-      <c r="V146" s="14">
-        <v>0</v>
-      </c>
-      <c r="W146" s="14">
-        <v>0</v>
-      </c>
-      <c r="X146" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y146" s="14">
-        <v>1</v>
-      </c>
-      <c r="Z146" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA146" s="14">
-        <v>1</v>
-      </c>
-      <c r="AB146" s="14">
-        <v>1</v>
-      </c>
-      <c r="AC146" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD146" s="16">
+      <c r="P146" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="16">
+        <v>0</v>
+      </c>
+      <c r="R146" s="16">
+        <v>0</v>
+      </c>
+      <c r="S146" s="16">
+        <v>0</v>
+      </c>
+      <c r="T146" s="16">
+        <v>0</v>
+      </c>
+      <c r="U146" s="16">
+        <v>0</v>
+      </c>
+      <c r="V146" s="16">
+        <v>0</v>
+      </c>
+      <c r="W146" s="16">
+        <v>0</v>
+      </c>
+      <c r="X146" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y146" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z146" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA146" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB146" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC146" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD146" s="18">
         <v>4.99E-2</v>
       </c>
-      <c r="AE146" s="16">
+      <c r="AE146" s="18">
         <v>0.1076</v>
       </c>
-      <c r="AF146" s="14"/>
-      <c r="AG146" s="17">
+      <c r="AF146" s="16"/>
+      <c r="AG146" s="19">
         <v>2021</v>
       </c>
-      <c r="AH146" s="17" t="s">
+      <c r="AH146" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="AI146" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ146" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK146" s="14">
-        <v>1</v>
-      </c>
-      <c r="AL146" s="9">
+      <c r="AI146" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ146" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL146" s="16">
         <v>2</v>
       </c>
+      <c r="AM146" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN146" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>439</v>
       </c>
@@ -17101,7 +17943,7 @@
       <c r="AG147">
         <v>2021</v>
       </c>
-      <c r="AH147" s="17" t="s">
+      <c r="AH147" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI147" s="9">
@@ -17116,8 +17958,14 @@
       <c r="AL147" s="9">
         <v>1</v>
       </c>
+      <c r="AM147" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN147" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>198</v>
       </c>
@@ -17213,7 +18061,7 @@
       <c r="AG148">
         <v>2021</v>
       </c>
-      <c r="AH148" s="17" t="s">
+      <c r="AH148" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI148" s="9">
@@ -17228,8 +18076,14 @@
       <c r="AL148" s="9">
         <v>1</v>
       </c>
+      <c r="AM148" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN148" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>88</v>
       </c>
@@ -17281,15 +18135,19 @@
       <c r="AG149">
         <v>2021</v>
       </c>
-      <c r="AH149" s="17" t="s">
+      <c r="AH149" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI149" s="9"/>
       <c r="AJ149" s="9"/>
       <c r="AK149" s="9"/>
       <c r="AL149" s="9"/>
+      <c r="AM149" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN149" s="9"/>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>419</v>
       </c>
@@ -17385,7 +18243,7 @@
       <c r="AG150">
         <v>2021</v>
       </c>
-      <c r="AH150" s="17" t="s">
+      <c r="AH150" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI150" s="9">
@@ -17400,8 +18258,14 @@
       <c r="AL150" s="9">
         <v>1</v>
       </c>
+      <c r="AM150" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN150" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>420</v>
       </c>
@@ -17501,7 +18365,7 @@
       <c r="AG151">
         <v>2021</v>
       </c>
-      <c r="AH151" s="17" t="s">
+      <c r="AH151" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI151" s="9">
@@ -17516,8 +18380,14 @@
       <c r="AL151" s="9">
         <v>1</v>
       </c>
+      <c r="AM151" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN151" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>421</v>
       </c>
@@ -17613,7 +18483,7 @@
       <c r="AG152">
         <v>2021</v>
       </c>
-      <c r="AH152" s="17" t="s">
+      <c r="AH152" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI152" s="9">
@@ -17628,8 +18498,14 @@
       <c r="AL152" s="9">
         <v>2</v>
       </c>
+      <c r="AM152" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN152" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>425</v>
       </c>
@@ -17717,7 +18593,7 @@
       <c r="AG153">
         <v>2021</v>
       </c>
-      <c r="AH153" s="17" t="s">
+      <c r="AH153" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI153" s="9">
@@ -17732,8 +18608,14 @@
       <c r="AL153" s="9">
         <v>2</v>
       </c>
+      <c r="AM153" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN153" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>53</v>
       </c>
@@ -17831,7 +18713,7 @@
       <c r="AG154">
         <v>2021</v>
       </c>
-      <c r="AH154" s="17" t="s">
+      <c r="AH154" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI154" s="9">
@@ -17846,8 +18728,14 @@
       <c r="AL154" s="9">
         <v>2</v>
       </c>
+      <c r="AM154" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN154" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>426</v>
       </c>
@@ -17939,7 +18827,7 @@
       <c r="AG155">
         <v>2021</v>
       </c>
-      <c r="AH155" s="17" t="s">
+      <c r="AH155" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI155" s="9">
@@ -17954,8 +18842,14 @@
       <c r="AL155" s="9">
         <v>2</v>
       </c>
+      <c r="AM155" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN155" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>124</v>
       </c>
@@ -18055,7 +18949,7 @@
       <c r="AG156">
         <v>2021</v>
       </c>
-      <c r="AH156" s="17" t="s">
+      <c r="AH156" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI156" s="9">
@@ -18070,8 +18964,14 @@
       <c r="AL156" s="9">
         <v>1</v>
       </c>
+      <c r="AM156" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN156" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>477</v>
       </c>
@@ -18169,7 +19069,7 @@
       <c r="AG157">
         <v>2021</v>
       </c>
-      <c r="AH157" s="17" t="s">
+      <c r="AH157" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI157" s="9">
@@ -18184,8 +19084,14 @@
       <c r="AL157" s="9">
         <v>2</v>
       </c>
+      <c r="AM157" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN157" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="158" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>445</v>
       </c>
@@ -18279,7 +19185,7 @@
       <c r="AG158">
         <v>2021</v>
       </c>
-      <c r="AH158" s="17" t="s">
+      <c r="AH158" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI158" s="9">
@@ -18294,8 +19200,14 @@
       <c r="AL158" s="9">
         <v>1</v>
       </c>
+      <c r="AM158" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN158" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="159" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A159" s="8">
         <v>242</v>
       </c>
@@ -18393,7 +19305,7 @@
       <c r="AG159">
         <v>2021</v>
       </c>
-      <c r="AH159" s="17" t="s">
+      <c r="AH159" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI159" s="9">
@@ -18408,8 +19320,14 @@
       <c r="AL159" s="9">
         <v>2</v>
       </c>
+      <c r="AM159" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN159" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="160" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>78</v>
       </c>
@@ -18503,7 +19421,7 @@
       <c r="AG160">
         <v>2021</v>
       </c>
-      <c r="AH160" s="17" t="s">
+      <c r="AH160" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI160" s="9">
@@ -18518,8 +19436,14 @@
       <c r="AL160" s="9">
         <v>2</v>
       </c>
+      <c r="AM160" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN160" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="161" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>21</v>
       </c>
@@ -18617,7 +19541,7 @@
       <c r="AG161">
         <v>2021</v>
       </c>
-      <c r="AH161" s="17" t="s">
+      <c r="AH161" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI161" s="9">
@@ -18632,8 +19556,14 @@
       <c r="AL161" s="9">
         <v>1</v>
       </c>
+      <c r="AM161" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN161" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A162" s="8">
         <v>128</v>
       </c>
@@ -18733,7 +19663,7 @@
       <c r="AG162">
         <v>2021</v>
       </c>
-      <c r="AH162" s="17" t="s">
+      <c r="AH162" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI162" s="9">
@@ -18748,8 +19678,14 @@
       <c r="AL162" s="9">
         <v>1</v>
       </c>
+      <c r="AM162" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN162" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A163" s="8">
         <v>384</v>
       </c>
@@ -18847,7 +19783,7 @@
       <c r="AG163">
         <v>2021</v>
       </c>
-      <c r="AH163" s="17" t="s">
+      <c r="AH163" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI163" s="9">
@@ -18862,8 +19798,14 @@
       <c r="AL163" s="9">
         <v>1</v>
       </c>
+      <c r="AM163" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN163" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A164" s="8">
         <v>383</v>
       </c>
@@ -18963,7 +19905,7 @@
       <c r="AG164">
         <v>2021</v>
       </c>
-      <c r="AH164" s="17" t="s">
+      <c r="AH164" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI164" s="9">
@@ -18978,8 +19920,14 @@
       <c r="AL164" s="9">
         <v>1</v>
       </c>
+      <c r="AM164" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN164" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A165" s="8">
         <v>474</v>
       </c>
@@ -19077,7 +20025,7 @@
       <c r="AG165">
         <v>2021</v>
       </c>
-      <c r="AH165" s="17" t="s">
+      <c r="AH165" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI165" s="9">
@@ -19092,8 +20040,14 @@
       <c r="AL165" s="9">
         <v>2</v>
       </c>
+      <c r="AM165" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN165" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>201</v>
       </c>
@@ -19193,7 +20147,7 @@
       <c r="AG166">
         <v>2021</v>
       </c>
-      <c r="AH166" s="17" t="s">
+      <c r="AH166" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI166" s="9">
@@ -19208,8 +20162,14 @@
       <c r="AL166" s="9">
         <v>2</v>
       </c>
+      <c r="AM166" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN166" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A167" s="8">
         <v>458</v>
       </c>
@@ -19309,7 +20269,7 @@
       <c r="AG167">
         <v>2021</v>
       </c>
-      <c r="AH167" s="17" t="s">
+      <c r="AH167" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI167" s="9">
@@ -19324,8 +20284,14 @@
       <c r="AL167" s="9">
         <v>2</v>
       </c>
+      <c r="AM167" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN167" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A168" s="8">
         <v>206</v>
       </c>
@@ -19423,7 +20389,7 @@
       <c r="AG168">
         <v>2021</v>
       </c>
-      <c r="AH168" s="17" t="s">
+      <c r="AH168" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI168" s="9">
@@ -19438,8 +20404,14 @@
       <c r="AL168" s="9">
         <v>1</v>
       </c>
+      <c r="AM168" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN168" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A169" s="8">
         <v>153</v>
       </c>
@@ -19539,7 +20511,7 @@
       <c r="AG169">
         <v>2021</v>
       </c>
-      <c r="AH169" s="17" t="s">
+      <c r="AH169" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI169" s="9">
@@ -19554,8 +20526,14 @@
       <c r="AL169" s="9">
         <v>1</v>
       </c>
+      <c r="AM169" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN169" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A170" s="8">
         <v>10</v>
       </c>
@@ -19655,7 +20633,7 @@
       <c r="AG170">
         <v>2021</v>
       </c>
-      <c r="AH170" s="17" t="s">
+      <c r="AH170" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI170" s="9">
@@ -19670,8 +20648,14 @@
       <c r="AL170" s="9">
         <v>1</v>
       </c>
+      <c r="AM170" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN170" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A171" s="8">
         <v>215</v>
       </c>
@@ -19767,7 +20751,7 @@
       <c r="AG171">
         <v>2021</v>
       </c>
-      <c r="AH171" s="17" t="s">
+      <c r="AH171" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI171" s="9">
@@ -19782,8 +20766,14 @@
       <c r="AL171" s="9">
         <v>2</v>
       </c>
+      <c r="AM171" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN171" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A172" s="8">
         <v>482</v>
       </c>
@@ -19883,7 +20873,7 @@
       <c r="AG172">
         <v>2021</v>
       </c>
-      <c r="AH172" s="17" t="s">
+      <c r="AH172" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI172" s="9">
@@ -19898,8 +20888,14 @@
       <c r="AL172" s="9">
         <v>2</v>
       </c>
+      <c r="AM172" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN172" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="173" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A173" s="8">
         <v>481</v>
       </c>
@@ -19997,7 +20993,7 @@
       <c r="AG173">
         <v>2021</v>
       </c>
-      <c r="AH173" s="17" t="s">
+      <c r="AH173" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI173" s="9">
@@ -20012,8 +21008,14 @@
       <c r="AL173" s="9">
         <v>2</v>
       </c>
+      <c r="AM173" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN173" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="174" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A174" s="8">
         <v>480</v>
       </c>
@@ -20109,7 +21111,7 @@
       <c r="AG174">
         <v>2021</v>
       </c>
-      <c r="AH174" s="17" t="s">
+      <c r="AH174" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI174" s="9">
@@ -20124,8 +21126,14 @@
       <c r="AL174" s="9">
         <v>2</v>
       </c>
+      <c r="AM174" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN174" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="175" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A175" s="8">
         <v>120</v>
       </c>
@@ -20225,7 +21233,7 @@
       <c r="AG175">
         <v>2021</v>
       </c>
-      <c r="AH175" s="17" t="s">
+      <c r="AH175" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI175" s="9">
@@ -20240,8 +21248,14 @@
       <c r="AL175" s="9">
         <v>2</v>
       </c>
+      <c r="AM175" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN175" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="176" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A176" s="8">
         <v>397</v>
       </c>
@@ -20341,7 +21355,7 @@
       <c r="AG176">
         <v>2021</v>
       </c>
-      <c r="AH176" s="17" t="s">
+      <c r="AH176" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI176" s="9">
@@ -20356,8 +21370,14 @@
       <c r="AL176" s="9">
         <v>1</v>
       </c>
+      <c r="AM176" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN176" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="177" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A177" s="8">
         <v>65</v>
       </c>
@@ -20457,7 +21477,7 @@
       <c r="AG177">
         <v>2021</v>
       </c>
-      <c r="AH177" s="17" t="s">
+      <c r="AH177" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI177" s="9">
@@ -20472,8 +21492,14 @@
       <c r="AL177" s="9">
         <v>1</v>
       </c>
+      <c r="AM177" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN177" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="178" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A178" s="8">
         <v>388</v>
       </c>
@@ -20573,7 +21599,7 @@
       <c r="AG178">
         <v>2021</v>
       </c>
-      <c r="AH178" s="17" t="s">
+      <c r="AH178" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI178" s="9">
@@ -20588,8 +21614,14 @@
       <c r="AL178" s="9">
         <v>1</v>
       </c>
+      <c r="AM178" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN178" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="179" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A179" s="8">
         <v>294</v>
       </c>
@@ -20687,7 +21719,7 @@
       <c r="AG179">
         <v>2021</v>
       </c>
-      <c r="AH179" s="17" t="s">
+      <c r="AH179" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI179" s="9">
@@ -20702,8 +21734,14 @@
       <c r="AL179" s="9">
         <v>1</v>
       </c>
+      <c r="AM179" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN179" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="180" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A180" s="8">
         <v>410</v>
       </c>
@@ -20797,7 +21835,7 @@
       <c r="AG180">
         <v>2021</v>
       </c>
-      <c r="AH180" s="17" t="s">
+      <c r="AH180" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI180" s="9">
@@ -20812,8 +21850,14 @@
       <c r="AL180" s="9">
         <v>2</v>
       </c>
+      <c r="AM180" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN180" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="181" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A181" s="8">
         <v>309</v>
       </c>
@@ -20913,7 +21957,7 @@
       <c r="AG181">
         <v>2021</v>
       </c>
-      <c r="AH181" s="17" t="s">
+      <c r="AH181" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI181" s="9">
@@ -20928,8 +21972,14 @@
       <c r="AL181" s="9">
         <v>2</v>
       </c>
+      <c r="AM181" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN181" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="182" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A182" s="8">
         <v>240</v>
       </c>
@@ -21023,7 +22073,7 @@
       <c r="AG182">
         <v>2021</v>
       </c>
-      <c r="AH182" s="17" t="s">
+      <c r="AH182" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI182" s="9">
@@ -21038,8 +22088,14 @@
       <c r="AL182" s="9">
         <v>2</v>
       </c>
+      <c r="AM182" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN182" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="183" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A183" s="8">
         <v>423</v>
       </c>
@@ -21129,7 +22185,7 @@
       <c r="AG183">
         <v>2021</v>
       </c>
-      <c r="AH183" s="17" t="s">
+      <c r="AH183" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI183" s="9">
@@ -21144,8 +22200,14 @@
       <c r="AL183" s="9">
         <v>1</v>
       </c>
+      <c r="AM183" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN183" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="184" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A184" s="8">
         <v>415</v>
       </c>
@@ -21239,7 +22301,7 @@
       <c r="AG184">
         <v>2021</v>
       </c>
-      <c r="AH184" s="17" t="s">
+      <c r="AH184" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI184" s="9">
@@ -21254,8 +22316,14 @@
       <c r="AL184" s="9">
         <v>2</v>
       </c>
+      <c r="AM184" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN184" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="185" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A185" s="8">
         <v>424</v>
       </c>
@@ -21345,7 +22413,7 @@
       <c r="AG185">
         <v>2021</v>
       </c>
-      <c r="AH185" s="17" t="s">
+      <c r="AH185" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI185" s="9">
@@ -21360,8 +22428,14 @@
       <c r="AL185" s="9">
         <v>1</v>
       </c>
+      <c r="AM185" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN185" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="186" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A186" s="8">
         <v>416</v>
       </c>
@@ -21455,7 +22529,7 @@
       <c r="AG186">
         <v>2021</v>
       </c>
-      <c r="AH186" s="17" t="s">
+      <c r="AH186" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI186" s="9">
@@ -21470,8 +22544,14 @@
       <c r="AL186" s="9">
         <v>2</v>
       </c>
+      <c r="AM186" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN186" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="187" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A187" s="8">
         <v>27</v>
       </c>
@@ -21567,7 +22647,7 @@
       <c r="AG187">
         <v>2021</v>
       </c>
-      <c r="AH187" s="17" t="s">
+      <c r="AH187" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI187" s="9">
@@ -21582,8 +22662,14 @@
       <c r="AL187" s="9">
         <v>1</v>
       </c>
+      <c r="AM187" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN187" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="188" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A188" s="8">
         <v>452</v>
       </c>
@@ -21681,7 +22767,7 @@
       <c r="AG188">
         <v>2021</v>
       </c>
-      <c r="AH188" s="17" t="s">
+      <c r="AH188" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI188" s="9">
@@ -21696,8 +22782,14 @@
       <c r="AL188" s="9">
         <v>1</v>
       </c>
+      <c r="AM188" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN188" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="189" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A189" s="8">
         <v>455</v>
       </c>
@@ -21793,7 +22885,7 @@
       <c r="AG189">
         <v>2021</v>
       </c>
-      <c r="AH189" s="17" t="s">
+      <c r="AH189" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI189" s="9">
@@ -21808,8 +22900,14 @@
       <c r="AL189" s="9">
         <v>1</v>
       </c>
+      <c r="AM189" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN189" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="190" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A190" s="8">
         <v>9</v>
       </c>
@@ -21909,7 +23007,7 @@
       <c r="AG190">
         <v>2021</v>
       </c>
-      <c r="AH190" s="17" t="s">
+      <c r="AH190" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI190" s="9">
@@ -21924,8 +23022,14 @@
       <c r="AL190" s="9">
         <v>1</v>
       </c>
+      <c r="AM190" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN190" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="191" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A191" s="8">
         <v>97</v>
       </c>
@@ -22025,7 +23129,7 @@
       <c r="AG191">
         <v>2021</v>
       </c>
-      <c r="AH191" s="17" t="s">
+      <c r="AH191" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI191" s="9">
@@ -22040,8 +23144,14 @@
       <c r="AL191" s="9">
         <v>1</v>
       </c>
+      <c r="AM191" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN191" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="192" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A192" s="8">
         <v>81</v>
       </c>
@@ -22137,7 +23247,7 @@
       <c r="AG192">
         <v>2021</v>
       </c>
-      <c r="AH192" s="17" t="s">
+      <c r="AH192" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI192" s="9">
@@ -22152,8 +23262,14 @@
       <c r="AL192" s="9">
         <v>2</v>
       </c>
+      <c r="AM192" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN192" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A193" s="8">
         <v>176</v>
       </c>
@@ -22253,7 +23369,7 @@
       <c r="AG193">
         <v>2021</v>
       </c>
-      <c r="AH193" s="17" t="s">
+      <c r="AH193" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI193" s="9">
@@ -22268,8 +23384,14 @@
       <c r="AL193" s="9">
         <v>1</v>
       </c>
+      <c r="AM193" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN193" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A194" s="8">
         <v>431</v>
       </c>
@@ -22369,7 +23491,7 @@
       <c r="AG194">
         <v>2021</v>
       </c>
-      <c r="AH194" s="17" t="s">
+      <c r="AH194" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI194" s="9">
@@ -22384,8 +23506,14 @@
       <c r="AL194" s="9">
         <v>1</v>
       </c>
+      <c r="AM194" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN194" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A195" s="8">
         <v>429</v>
       </c>
@@ -22485,7 +23613,7 @@
       <c r="AG195">
         <v>2021</v>
       </c>
-      <c r="AH195" s="17" t="s">
+      <c r="AH195" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI195" s="9">
@@ -22500,8 +23628,14 @@
       <c r="AL195" s="9">
         <v>1</v>
       </c>
+      <c r="AM195" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN195" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A196" s="8">
         <v>178</v>
       </c>
@@ -22601,7 +23735,7 @@
       <c r="AG196">
         <v>2021</v>
       </c>
-      <c r="AH196" s="17" t="s">
+      <c r="AH196" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI196" s="9">
@@ -22616,8 +23750,14 @@
       <c r="AL196" s="9">
         <v>1</v>
       </c>
+      <c r="AM196" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN196" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A197" s="8">
         <v>483</v>
       </c>
@@ -22713,7 +23853,7 @@
       <c r="AG197">
         <v>2021</v>
       </c>
-      <c r="AH197" s="17" t="s">
+      <c r="AH197" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI197" s="9">
@@ -22728,8 +23868,14 @@
       <c r="AL197" s="9">
         <v>2</v>
       </c>
+      <c r="AM197" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN197" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A198" s="8">
         <v>66</v>
       </c>
@@ -22829,7 +23975,7 @@
       <c r="AG198">
         <v>2021</v>
       </c>
-      <c r="AH198" s="17" t="s">
+      <c r="AH198" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI198" s="9">
@@ -22844,8 +23990,14 @@
       <c r="AL198" s="9">
         <v>2</v>
       </c>
+      <c r="AM198" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN198" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="199" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A199" s="8">
         <v>434</v>
       </c>
@@ -22941,7 +24093,7 @@
       <c r="AG199">
         <v>2021</v>
       </c>
-      <c r="AH199" s="17" t="s">
+      <c r="AH199" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI199" s="9">
@@ -22956,8 +24108,14 @@
       <c r="AL199" s="9">
         <v>2</v>
       </c>
+      <c r="AM199" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN199" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="200" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A200" s="8">
         <v>380</v>
       </c>
@@ -23053,7 +24211,7 @@
       <c r="AG200">
         <v>2021</v>
       </c>
-      <c r="AH200" s="17" t="s">
+      <c r="AH200" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI200" s="9">
@@ -23068,8 +24226,14 @@
       <c r="AL200" s="9">
         <v>1</v>
       </c>
+      <c r="AM200" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN200" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="201" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A201" s="8">
         <v>399</v>
       </c>
@@ -23135,7 +24299,7 @@
       <c r="AG201">
         <v>2021</v>
       </c>
-      <c r="AH201" s="17" t="s">
+      <c r="AH201" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI201" s="9"/>
@@ -23144,8 +24308,12 @@
       <c r="AL201" s="9">
         <v>3</v>
       </c>
+      <c r="AM201" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN201" s="9"/>
     </row>
-    <row r="202" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A202" s="8">
         <v>347</v>
       </c>
@@ -23211,7 +24379,7 @@
       <c r="AG202">
         <v>2021</v>
       </c>
-      <c r="AH202" s="17" t="s">
+      <c r="AH202" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI202" s="9"/>
@@ -23220,8 +24388,12 @@
       <c r="AL202" s="9">
         <v>3</v>
       </c>
+      <c r="AM202" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN202" s="9"/>
     </row>
-    <row r="203" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A203" s="8">
         <v>41</v>
       </c>
@@ -23301,7 +24473,7 @@
       <c r="AG203">
         <v>2021</v>
       </c>
-      <c r="AH203" s="17" t="s">
+      <c r="AH203" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI203" s="9">
@@ -23316,8 +24488,14 @@
       <c r="AL203" s="9">
         <v>1</v>
       </c>
+      <c r="AM203" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN203" s="9" t="s">
+        <v>642</v>
+      </c>
     </row>
-    <row r="204" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A204" s="8">
         <v>471</v>
       </c>
@@ -23407,7 +24585,7 @@
       <c r="AG204">
         <v>2021</v>
       </c>
-      <c r="AH204" s="17" t="s">
+      <c r="AH204" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI204" s="9">
@@ -23422,8 +24600,14 @@
       <c r="AL204" s="9">
         <v>1</v>
       </c>
+      <c r="AM204" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN204" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A205" s="8">
         <v>101</v>
       </c>
@@ -23519,7 +24703,7 @@
       <c r="AG205">
         <v>2021</v>
       </c>
-      <c r="AH205" s="17" t="s">
+      <c r="AH205" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI205" s="9">
@@ -23534,8 +24718,14 @@
       <c r="AL205" s="9">
         <v>2</v>
       </c>
+      <c r="AM205" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN205" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A206" s="8">
         <v>400</v>
       </c>
@@ -23583,15 +24773,19 @@
       <c r="AG206">
         <v>2021</v>
       </c>
-      <c r="AH206" s="17" t="s">
+      <c r="AH206" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI206" s="9"/>
       <c r="AJ206" s="9"/>
       <c r="AK206" s="9"/>
       <c r="AL206" s="9"/>
+      <c r="AM206" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN206" s="9"/>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A207" s="8">
         <v>389</v>
       </c>
@@ -23639,15 +24833,19 @@
       <c r="AG207">
         <v>2021</v>
       </c>
-      <c r="AH207" s="17" t="s">
+      <c r="AH207" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI207" s="9"/>
       <c r="AJ207" s="9"/>
       <c r="AK207" s="9"/>
       <c r="AL207" s="9"/>
+      <c r="AM207" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN207" s="9"/>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A208" s="8">
         <v>402</v>
       </c>
@@ -23695,15 +24893,19 @@
       <c r="AG208">
         <v>2021</v>
       </c>
-      <c r="AH208" s="17" t="s">
+      <c r="AH208" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI208" s="9"/>
       <c r="AJ208" s="9"/>
       <c r="AK208" s="9"/>
       <c r="AL208" s="9"/>
+      <c r="AM208" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN208" s="9"/>
     </row>
-    <row r="209" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A209" s="8">
         <v>395</v>
       </c>
@@ -23751,15 +24953,19 @@
       <c r="AG209">
         <v>2021</v>
       </c>
-      <c r="AH209" s="17" t="s">
+      <c r="AH209" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI209" s="9"/>
       <c r="AJ209" s="9"/>
       <c r="AK209" s="9"/>
       <c r="AL209" s="9"/>
+      <c r="AM209" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN209" s="9"/>
     </row>
-    <row r="210" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A210" s="8">
         <v>194</v>
       </c>
@@ -23807,15 +25013,19 @@
       <c r="AG210">
         <v>2021</v>
       </c>
-      <c r="AH210" s="17" t="s">
+      <c r="AH210" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI210" s="9"/>
       <c r="AJ210" s="9"/>
       <c r="AK210" s="9"/>
       <c r="AL210" s="9"/>
+      <c r="AM210" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN210" s="9"/>
     </row>
-    <row r="211" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A211" s="8">
         <v>394</v>
       </c>
@@ -23861,15 +25071,19 @@
       <c r="AG211">
         <v>2021</v>
       </c>
-      <c r="AH211" s="17" t="s">
+      <c r="AH211" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI211" s="9"/>
       <c r="AJ211" s="9"/>
       <c r="AK211" s="9"/>
       <c r="AL211" s="9"/>
+      <c r="AM211" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN211" s="9"/>
     </row>
-    <row r="212" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A212" s="8">
         <v>478</v>
       </c>
@@ -23915,15 +25129,19 @@
       <c r="AG212">
         <v>2021</v>
       </c>
-      <c r="AH212" s="17" t="s">
+      <c r="AH212" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI212" s="9"/>
       <c r="AJ212" s="9"/>
       <c r="AK212" s="9"/>
       <c r="AL212" s="9"/>
+      <c r="AM212" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN212" s="9"/>
     </row>
-    <row r="213" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A213" s="8">
         <v>475</v>
       </c>
@@ -23969,15 +25187,19 @@
       <c r="AG213">
         <v>2021</v>
       </c>
-      <c r="AH213" s="17" t="s">
+      <c r="AH213" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI213" s="9"/>
       <c r="AJ213" s="9"/>
       <c r="AK213" s="9"/>
       <c r="AL213" s="9"/>
+      <c r="AM213" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN213" s="9"/>
     </row>
-    <row r="214" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A214" s="8">
         <v>1</v>
       </c>
@@ -24023,15 +25245,19 @@
       <c r="AG214">
         <v>2021</v>
       </c>
-      <c r="AH214" s="17" t="s">
+      <c r="AH214" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI214" s="9"/>
       <c r="AJ214" s="9"/>
       <c r="AK214" s="9"/>
       <c r="AL214" s="9"/>
+      <c r="AM214" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN214" s="9"/>
     </row>
-    <row r="215" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A215" s="8">
         <v>251</v>
       </c>
@@ -24077,15 +25303,19 @@
       <c r="AG215">
         <v>2021</v>
       </c>
-      <c r="AH215" s="17" t="s">
+      <c r="AH215" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI215" s="9"/>
       <c r="AJ215" s="9"/>
       <c r="AK215" s="9"/>
       <c r="AL215" s="9"/>
+      <c r="AM215" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN215" s="9"/>
     </row>
-    <row r="216" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A216" s="8">
         <v>391</v>
       </c>
@@ -24131,15 +25361,19 @@
       <c r="AG216">
         <v>2021</v>
       </c>
-      <c r="AH216" s="17" t="s">
+      <c r="AH216" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI216" s="9"/>
       <c r="AJ216" s="9"/>
       <c r="AK216" s="9"/>
       <c r="AL216" s="9"/>
+      <c r="AM216" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN216" s="9"/>
     </row>
-    <row r="217" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A217" s="8">
         <v>396</v>
       </c>
@@ -24185,15 +25419,19 @@
       <c r="AG217">
         <v>2021</v>
       </c>
-      <c r="AH217" s="17" t="s">
+      <c r="AH217" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI217" s="9"/>
       <c r="AJ217" s="9"/>
       <c r="AK217" s="9"/>
       <c r="AL217" s="9"/>
+      <c r="AM217" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN217" s="9"/>
     </row>
-    <row r="218" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A218" s="8">
         <v>443</v>
       </c>
@@ -24239,15 +25477,19 @@
       <c r="AG218">
         <v>2021</v>
       </c>
-      <c r="AH218" s="17" t="s">
+      <c r="AH218" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI218" s="9"/>
       <c r="AJ218" s="9"/>
       <c r="AK218" s="9"/>
       <c r="AL218" s="9"/>
+      <c r="AM218" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN218" s="9"/>
     </row>
-    <row r="219" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A219" s="8">
         <v>382</v>
       </c>
@@ -24293,15 +25535,19 @@
       <c r="AG219">
         <v>2021</v>
       </c>
-      <c r="AH219" s="17" t="s">
+      <c r="AH219" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI219" s="9"/>
       <c r="AJ219" s="9"/>
       <c r="AK219" s="9"/>
       <c r="AL219" s="9"/>
+      <c r="AM219" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN219" s="9"/>
     </row>
-    <row r="220" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A220" s="8">
         <v>472</v>
       </c>
@@ -24347,15 +25593,19 @@
       <c r="AG220">
         <v>2021</v>
       </c>
-      <c r="AH220" s="17" t="s">
+      <c r="AH220" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI220" s="9"/>
       <c r="AJ220" s="9"/>
       <c r="AK220" s="9"/>
       <c r="AL220" s="9"/>
+      <c r="AM220" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN220" s="9"/>
     </row>
-    <row r="221" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A221" s="8">
         <v>408</v>
       </c>
@@ -24401,15 +25651,19 @@
       <c r="AG221">
         <v>2021</v>
       </c>
-      <c r="AH221" s="17" t="s">
+      <c r="AH221" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI221" s="9"/>
       <c r="AJ221" s="9"/>
       <c r="AK221" s="9"/>
       <c r="AL221" s="9"/>
+      <c r="AM221" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN221" s="9"/>
     </row>
-    <row r="222" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A222" s="8">
         <v>462</v>
       </c>
@@ -24455,15 +25709,19 @@
       <c r="AG222">
         <v>2021</v>
       </c>
-      <c r="AH222" s="17" t="s">
+      <c r="AH222" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI222" s="9"/>
       <c r="AJ222" s="9"/>
       <c r="AK222" s="9"/>
       <c r="AL222" s="9"/>
+      <c r="AM222" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN222" s="9"/>
     </row>
-    <row r="223" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A223" s="8">
         <v>466</v>
       </c>
@@ -24509,15 +25767,19 @@
       <c r="AG223">
         <v>2021</v>
       </c>
-      <c r="AH223" s="17" t="s">
+      <c r="AH223" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI223" s="9"/>
       <c r="AJ223" s="9"/>
       <c r="AK223" s="9"/>
       <c r="AL223" s="9"/>
+      <c r="AM223" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN223" s="9"/>
     </row>
-    <row r="224" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A224" s="8">
         <v>156</v>
       </c>
@@ -24615,7 +25877,7 @@
       <c r="AG224">
         <v>2021</v>
       </c>
-      <c r="AH224" s="17" t="s">
+      <c r="AH224" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI224" s="9">
@@ -24630,8 +25892,14 @@
       <c r="AL224" s="9">
         <v>1</v>
       </c>
+      <c r="AM224" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN224" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="225" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A225" s="8">
         <v>417</v>
       </c>
@@ -24729,7 +25997,7 @@
       <c r="AG225">
         <v>2021</v>
       </c>
-      <c r="AH225" s="17" t="s">
+      <c r="AH225" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI225" s="9">
@@ -24744,8 +26012,14 @@
       <c r="AL225" s="9">
         <v>1</v>
       </c>
+      <c r="AM225" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="AN225" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="226" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A226" s="8">
         <v>447</v>
       </c>
@@ -24839,7 +26113,7 @@
       <c r="AG226">
         <v>2021</v>
       </c>
-      <c r="AH226" s="17" t="s">
+      <c r="AH226" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI226" s="9">
@@ -24854,8 +26128,14 @@
       <c r="AL226" s="9">
         <v>2</v>
       </c>
+      <c r="AM226" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN226" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="227" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A227" s="8">
         <v>48</v>
       </c>
@@ -24947,7 +26227,7 @@
       <c r="AG227">
         <v>2021</v>
       </c>
-      <c r="AH227" s="17" t="s">
+      <c r="AH227" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI227" s="9">
@@ -24962,8 +26242,14 @@
       <c r="AL227" s="9">
         <v>2</v>
       </c>
+      <c r="AM227" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN227" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="228" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A228" s="8">
         <v>93</v>
       </c>
@@ -25063,7 +26349,7 @@
       <c r="AG228">
         <v>2021</v>
       </c>
-      <c r="AH228" s="17" t="s">
+      <c r="AH228" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI228" s="9">
@@ -25078,8 +26364,14 @@
       <c r="AL228" s="9">
         <v>1</v>
       </c>
+      <c r="AM228" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN228" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="229" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A229" s="8">
         <v>132</v>
       </c>
@@ -25179,7 +26471,7 @@
       <c r="AG229">
         <v>2021</v>
       </c>
-      <c r="AH229" s="17" t="s">
+      <c r="AH229" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI229" s="9">
@@ -25194,8 +26486,14 @@
       <c r="AL229" s="9">
         <v>1</v>
       </c>
+      <c r="AM229" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN229" s="9" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="230" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A230" s="8">
         <v>430</v>
       </c>
@@ -25295,7 +26593,7 @@
       <c r="AG230">
         <v>2021</v>
       </c>
-      <c r="AH230" s="17" t="s">
+      <c r="AH230" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI230" s="9">
@@ -25310,8 +26608,14 @@
       <c r="AL230" s="9">
         <v>1</v>
       </c>
+      <c r="AM230" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN230" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="231" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A231" s="8">
         <v>228</v>
       </c>
@@ -25363,15 +26667,19 @@
       <c r="AG231">
         <v>2021</v>
       </c>
-      <c r="AH231" s="17" t="s">
+      <c r="AH231" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI231" s="9"/>
       <c r="AJ231" s="9"/>
       <c r="AK231" s="9"/>
       <c r="AL231" s="9"/>
+      <c r="AM231" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN231" s="9"/>
     </row>
-    <row r="232" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A232" s="8">
         <v>281</v>
       </c>
@@ -25463,7 +26771,7 @@
       <c r="AG232">
         <v>2021</v>
       </c>
-      <c r="AH232" s="17" t="s">
+      <c r="AH232" s="13" t="s">
         <v>628</v>
       </c>
       <c r="AI232" s="9">
@@ -25478,54 +26786,70 @@
       <c r="AL232" s="9">
         <v>2</v>
       </c>
+      <c r="AM232" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN232" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="233" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A233" s="8">
+    <row r="233" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="15">
         <v>62</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="E233" s="9">
-        <v>0</v>
-      </c>
-      <c r="F233" s="10"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="9"/>
-      <c r="J233" s="9"/>
-      <c r="K233" s="9"/>
-      <c r="L233" s="9"/>
-      <c r="M233" s="9"/>
-      <c r="N233" s="9"/>
-      <c r="O233" s="9"/>
-      <c r="P233" s="9"/>
-      <c r="Q233" s="9"/>
-      <c r="R233" s="9"/>
-      <c r="S233" s="9"/>
-      <c r="T233" s="9"/>
-      <c r="U233" s="9"/>
-      <c r="V233" s="9"/>
-      <c r="W233" s="9"/>
-      <c r="X233" s="9"/>
-      <c r="Y233" s="9"/>
-      <c r="Z233" s="9"/>
-      <c r="AA233" s="9"/>
-      <c r="AB233" s="9"/>
-      <c r="AC233" s="9"/>
-      <c r="AD233" s="9"/>
-      <c r="AE233" s="9"/>
-      <c r="AF233" s="9"/>
-      <c r="AI233" s="9"/>
-      <c r="AJ233" s="9"/>
-      <c r="AK233" s="9"/>
-      <c r="AL233" s="9"/>
+      <c r="E233" s="16">
+        <v>0</v>
+      </c>
+      <c r="F233" s="17"/>
+      <c r="G233" s="16"/>
+      <c r="H233" s="16"/>
+      <c r="I233" s="16"/>
+      <c r="J233" s="16"/>
+      <c r="K233" s="16"/>
+      <c r="L233" s="16"/>
+      <c r="M233" s="16"/>
+      <c r="N233" s="16"/>
+      <c r="O233" s="16"/>
+      <c r="P233" s="16"/>
+      <c r="Q233" s="16"/>
+      <c r="R233" s="16"/>
+      <c r="S233" s="16"/>
+      <c r="T233" s="16"/>
+      <c r="U233" s="16"/>
+      <c r="V233" s="16"/>
+      <c r="W233" s="16"/>
+      <c r="X233" s="16"/>
+      <c r="Y233" s="16"/>
+      <c r="Z233" s="16"/>
+      <c r="AA233" s="16"/>
+      <c r="AB233" s="16"/>
+      <c r="AC233" s="16"/>
+      <c r="AD233" s="16"/>
+      <c r="AE233" s="16"/>
+      <c r="AF233" s="16"/>
+      <c r="AG233">
+        <v>2021</v>
+      </c>
+      <c r="AH233" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI233" s="16"/>
+      <c r="AJ233" s="16"/>
+      <c r="AK233" s="16"/>
+      <c r="AL233" s="16"/>
+      <c r="AM233" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="AN233" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
